--- a/biology/Botanique/Apium_inundatum/Apium_inundatum.xlsx
+++ b/biology/Botanique/Apium_inundatum/Apium_inundatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ache inondée (Helosciadium inundatum), appelée aussi céleri inondé ou encore ache faux-cresson, est une espèce de plante à fleurs de la famille des Apiaceae.
 Synonyme :
@@ -515,14 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Hélophyte – Hydrohémicryptophyte.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélophyte – Hydrohémicryptophyte.
 C'est une plante aquatique.
 C'est une plante vivace et rampante de 10 à 40 cm de hauteur. Hémicryptophyte stolonifère, elle assure sa multiplication végétative par des stolons et peut facilement coloniser tout un espace. Prospérant dans les ceintures végétales des zones humides, hélophyte, ses racines doivent toujours être sous l'eau ;  certaines feuilles sont immergées, d’autres sont aériennes.
 Les feuilles submergées sont très découpées en lanières étroites et bi-tripennatiséquées, les feuilles aériennes sont pennatiséquées, et les folioles sont en coin à la base.
 Les tiges flottantes ou rampantes sont assez longues et glabres.
-Appareil reproducteur
-Les fleurs forment de minuscules ombelles blanches qui ont deux, parfois trois rayons, sans bractées.
 </t>
         </is>
       </c>
@@ -548,10 +563,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs forment de minuscules ombelles blanches qui ont deux, parfois trois rayons, sans bractées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apium_inundatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apium_inundatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Période de floraison : juin à septembre.
 Régions d'origine et régions où la plante s'est naturalisée : mares, fossés inondés, étangs, ruisseaux, dans le Nord, l'Ouest, le Centre. Rare dans l'Est, absente dans le Midi.
@@ -562,33 +616,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Apium_inundatum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Apium_inundatum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ache inondée est protégée en Île-de-France[1] et dans le Nord-Pas-de-Calais[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ache inondée est protégée en Île-de-France et dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
